--- a/Python_Exercises.xlsx
+++ b/Python_Exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giangtvt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhh\Desktop\exercise_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_BAC21740B41D2EE79DE2D402F1FFB56B1ACADFEB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436CDD96-A83C-4DBF-8807-DE4058A7D8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16590" windowHeight="3060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -112,19 +112,13 @@
   </si>
   <si>
     <t>Tạo 1 list 5 phần tử, viết phần xử lý exception nếu  truy cập vào phần tử thứ 6, 7, 8,… của list 5 phần tử đó. In ra "Truy cap phan tu ngoai list"</t>
-  </si>
-  <si>
-    <t>Flask</t>
-  </si>
-  <si>
-    <t>Viết API có sử dụng phương thức get, post, update, delete với các resource tạo bởi SQLite database. Sử dụng SQLAlchemy trong Flask (ORM Framework) để truy vấn dữ liệu trong db.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,22 +433,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="111" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="2" customWidth="1"/>
-    <col min="5" max="11" width="9.140625" style="1"/>
+    <col min="4" max="4" width="31.44140625" style="2" customWidth="1"/>
+    <col min="5" max="11" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -479,7 +473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -490,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -501,7 +495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -512,7 +506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -523,7 +517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -534,7 +528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -545,7 +539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -556,7 +550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -567,7 +561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -578,7 +572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -589,7 +583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -600,7 +594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -611,7 +605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -622,7 +616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -633,18 +627,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>